--- a/office/gate/excel/查找引用技术.xlsx
+++ b/office/gate/excel/查找引用技术.xlsx
@@ -8,20 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\gitRepository\daily\office\gate\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7331EC7F-491D-4C55-B0F3-ACD297DA7E61}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C382B75C-8FD5-482F-A058-F753E27B6C92}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{AA77C763-8165-4E44-8D2A-A04B7AAC814C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="7" xr2:uid="{AA77C763-8165-4E44-8D2A-A04B7AAC814C}"/>
   </bookViews>
   <sheets>
     <sheet name="VLOOKUP" sheetId="1" r:id="rId1"/>
     <sheet name="Vlookup跨表操作" sheetId="2" r:id="rId2"/>
     <sheet name="INDIRECT" sheetId="3" r:id="rId3"/>
+    <sheet name="MATCH与INDEX" sheetId="4" r:id="rId4"/>
+    <sheet name="ROW和COLUMN" sheetId="5" r:id="rId5"/>
+    <sheet name="初识数组" sheetId="6" r:id="rId6"/>
+    <sheet name="CHOOSE" sheetId="7" r:id="rId7"/>
+    <sheet name="LOOKUP" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="第二季">INDIRECT!$C$12:$C$17</definedName>
     <definedName name="第三季">INDIRECT!$D$12:$D$17</definedName>
     <definedName name="第四季">INDIRECT!$E$12:$E$17</definedName>
     <definedName name="第一季">INDIRECT!$B$12:$B$17</definedName>
+    <definedName name="用户公司数据源">VLOOKUP!$B$1:$D$16</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -39,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="198">
   <si>
     <t>公司名</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -426,6 +432,362 @@
   </si>
   <si>
     <t>迷你图</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查找重复</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>员工编号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>员工姓名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>性别</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>年龄</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>E2001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>E2002</t>
+  </si>
+  <si>
+    <t>E2003</t>
+  </si>
+  <si>
+    <t>E2004</t>
+  </si>
+  <si>
+    <t>E2005</t>
+  </si>
+  <si>
+    <t>E2006</t>
+  </si>
+  <si>
+    <t>男</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>女</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>E2007</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROW</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MATCH</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>重复</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查找内容没有重复时，返回查找内容在查找区域的行号，如果重复，将返回首次出现在查找区域的行号。首次出现的值，将不算重复。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过match去自动查找需要返回的内容在第几行，而不需要手动去数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MATCH与VLOOKUP,</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VLOOKUP(A18,用户公司数据源,MATCH(B17,VLOOKUP!B1:D1,0),0)</t>
+  </si>
+  <si>
+    <t>逆向查找</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VLOOKUP查找的数据必须在查找区域的第一行或第一列，所以通过地址去查找用户名难以实现</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>index+match派上用场</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>match用于返回行号，index用于取值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>INDEX(VLOOKUP!$B$2:$B$16,MATCH(MATCH与INDEX!A30,VLOOKUP!$D$2:$D$16,0))</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>双条件查找</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>语文</t>
+  </si>
+  <si>
+    <t>语文</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数学</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>英语</t>
+  </si>
+  <si>
+    <t>英语</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>学科</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成绩</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>顾国栋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>INDEX($A$39:$D$44,MATCH(F41,$A$39:$A$44,0),MATCH(G41,$A$39:$D$39,0))</t>
+  </si>
+  <si>
+    <t>隔行插入</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动排序</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>升序</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>降序</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态序列</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习内容</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>详解</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXCEL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态序列+条件格式（边框）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>款项类型</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>金额</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>公积金</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>款项</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>总和</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>教育支出</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>社保</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>sumif用数组公式代替</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>科目名称</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>行政部</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>会计部</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>人事部</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>工会</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SUM(($A$2:$A$7=D3)*$B$2:$B$7)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sumifs用数组公式代替</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SUM(($A$11:$A$18=E12)*($B$11:$B$18=F12)*($C$11:$C$18))</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数组间的运算是对位运算</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数组1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>数组2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>数组+数组</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>数组*数组</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>数组1+数组2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数串中每个值需要用逗号隔开。若直接通过鼠标选中相应的区域，那么选择的这个区域只代表一个参数。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>政治</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHOOSE(2,E5:H5)</t>
+  </si>
+  <si>
+    <t>CHOOSE(2,E5,F5,G5,H5)</t>
+  </si>
+  <si>
+    <t>区域1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>区域2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>区域3</t>
+  </si>
+  <si>
+    <t>choose选择区域生成二维数组</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHOOSE({1,3,2},A11:A12,B11:B12,C11:C12)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>逆向+多条件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>郭青青</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>山东省</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级划分（左臂右开）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0&lt;= grade&lt;60</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>区间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>60&lt;=GRADE&lt;70</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>70&lt;=GRADE&lt;80</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>80&lt;=GRADE&lt;90</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>90&lt;=GRADE&lt;100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOOKUP(B22,{0,60,70,80,90},{"E","D","C","B","A"})</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -436,7 +798,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -485,8 +847,23 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -517,13 +894,52 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -532,7 +948,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -580,11 +996,67 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -897,7 +1369,7 @@
   <dimension ref="B1:D29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="B1" sqref="B1:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1131,8 +1603,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{725D7CCE-7813-45A0-AD34-025D80646DC4}">
   <dimension ref="B2:K40"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1543,7 +2015,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF97F4C0-D6CA-43A1-82AB-EDDB2FC66339}">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
@@ -1809,4 +2281,2057 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD8F7E5B-DFB6-45C0-8CF0-E45E2F84ECC1}">
+  <dimension ref="A1:I44"/>
+  <sheetViews>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39:D44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21.125" customWidth="1"/>
+    <col min="2" max="2" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.125" customWidth="1"/>
+    <col min="5" max="5" width="10" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="17" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D4">
+        <v>26</v>
+      </c>
+      <c r="E4">
+        <f>MATCH(A4,$A$4:$A$13,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <f>ROW(A4)-3</f>
+        <v>1</v>
+      </c>
+      <c r="G4" t="str">
+        <f>IF(E4=F4,"","重复")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D5">
+        <v>22</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ref="E5:E13" si="0">MATCH(A5,$A$4:$A$13,0)</f>
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <f t="shared" ref="F5:F13" si="1">ROW(A5)-3</f>
+        <v>2</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" ref="G5:G13" si="2">IF(E5=F5,"","重复")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D6">
+        <v>35</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>114</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>117</v>
+      </c>
+      <c r="D7">
+        <v>45</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>115</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>118</v>
+      </c>
+      <c r="D8">
+        <v>37</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>116</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>118</v>
+      </c>
+      <c r="D9">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>112</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>118</v>
+      </c>
+      <c r="D10">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="2"/>
+        <v>重复</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>119</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>118</v>
+      </c>
+      <c r="D11">
+        <v>27</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>112</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>118</v>
+      </c>
+      <c r="D12">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="2"/>
+        <v>重复</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>115</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>118</v>
+      </c>
+      <c r="D13">
+        <v>37</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="2"/>
+        <v>重复</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="17" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>124</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" t="str">
+        <f>VLOOKUP(A18,用户公司数据源,MATCH(B17,VLOOKUP!B1:D1,0),0)</f>
+        <v>树之机械有限责任公司</v>
+      </c>
+      <c r="C18" t="str">
+        <f>VLOOKUP(A18,用户公司数据源,MATCH(C$17,VLOOKUP!$B$1:$D$1,0),0)</f>
+        <v>黑龙江省曹甸镇工业园区</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" t="str">
+        <f>VLOOKUP(A19,用户公司数据源,MATCH(B18,VLOOKUP!B2:D2,0),0)</f>
+        <v>江苏省米奇妙趣玩具集团有限责任公司</v>
+      </c>
+      <c r="C19" t="str">
+        <f>VLOOKUP(A19,用户公司数据源,MATCH(C$17,VLOOKUP!$B$1:$D$1,0),0)</f>
+        <v>江苏省解放路一段24号</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" t="str">
+        <f>VLOOKUP(A20,用户公司数据源,MATCH(B19,VLOOKUP!B3:D3,0),0)</f>
+        <v>奥博管业有限公司</v>
+      </c>
+      <c r="C20" t="str">
+        <f>VLOOKUP(A20,用户公司数据源,MATCH(C$17,VLOOKUP!$B$1:$D$1,0),0)</f>
+        <v>辽宁省颍州区303号</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" t="str">
+        <f>VLOOKUP(A21,用户公司数据源,MATCH(B20,VLOOKUP!B4:D4,0),0)</f>
+        <v>草野家私有限责任公司</v>
+      </c>
+      <c r="C21" t="str">
+        <f>VLOOKUP(A21,用户公司数据源,MATCH(C$17,VLOOKUP!$B$1:$D$1,0),0)</f>
+        <v>内蒙古蒙古自治区草屯树路1号</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" t="str">
+        <f>VLOOKUP(A22,用户公司数据源,MATCH(B21,VLOOKUP!B5:D5,0),0)</f>
+        <v>阜阳易网网络科技有限公司</v>
+      </c>
+      <c r="C22" t="str">
+        <f>VLOOKUP(A22,用户公司数据源,MATCH(C$17,VLOOKUP!$B$1:$D$1,0),0)</f>
+        <v>河北省大树区商贸中心二楼三室</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="17" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" t="str">
+        <f>INDEX(VLOOKUP!$B$2:$B$16,MATCH(MATCH与INDEX!A30,VLOOKUP!$D$2:$D$16,0))</f>
+        <v>顾国栋</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31" t="str">
+        <f>INDEX(VLOOKUP!$B$2:$B$16,MATCH(MATCH与INDEX!A31,VLOOKUP!$D$2:$D$16,0))</f>
+        <v>云国栋</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B32" t="str">
+        <f>INDEX(VLOOKUP!$B$2:$B$16,MATCH(MATCH与INDEX!A32,VLOOKUP!$D$2:$D$16,0))</f>
+        <v>殷涵越</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B33" t="str">
+        <f>INDEX(VLOOKUP!$B$2:$B$16,MATCH(MATCH与INDEX!A33,VLOOKUP!$D$2:$D$16,0))</f>
+        <v>秦涵越</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" s="17" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B40">
+        <v>70</v>
+      </c>
+      <c r="C40">
+        <v>90</v>
+      </c>
+      <c r="D40">
+        <v>70</v>
+      </c>
+      <c r="F40" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G40" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="H40" s="10" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B41">
+        <v>65</v>
+      </c>
+      <c r="C41">
+        <v>80</v>
+      </c>
+      <c r="D41">
+        <v>90</v>
+      </c>
+      <c r="F41" t="s">
+        <v>140</v>
+      </c>
+      <c r="G41" t="s">
+        <v>133</v>
+      </c>
+      <c r="H41">
+        <f>INDEX($A$39:$D$44,MATCH(F41,$A$39:$A$44,0),MATCH(G41,$A$39:$D$39,0))</f>
+        <v>70</v>
+      </c>
+      <c r="I41" s="16" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42">
+        <v>50</v>
+      </c>
+      <c r="C42">
+        <v>75</v>
+      </c>
+      <c r="D42">
+        <v>78</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G42" t="s">
+        <v>136</v>
+      </c>
+      <c r="H42">
+        <f>INDEX($A$39:$D$44,MATCH(F42,$A$39:$A$44,0),MATCH(G42,$A$39:$D$39,0))</f>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B43">
+        <v>80</v>
+      </c>
+      <c r="C43">
+        <v>85</v>
+      </c>
+      <c r="D43">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44">
+        <v>90</v>
+      </c>
+      <c r="C44">
+        <v>65</v>
+      </c>
+      <c r="D44">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G41:G44" xr:uid="{12A3D4FF-3043-4861-83AA-CF733A0FE55E}">
+      <formula1>$B$39:$D$39</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C80B3A01-B532-4675-B0EA-A03B52622581}">
+  <dimension ref="A1:D44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="17" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="str">
+        <f>IF(MOD(ROW(),2)=1,"姓名","")</f>
+        <v>姓名</v>
+      </c>
+      <c r="B3" t="str">
+        <f>IF(MOD(ROW(),2)=1,"银行卡号","")</f>
+        <v>银行卡号</v>
+      </c>
+      <c r="C3" t="str">
+        <f>IF(MOD(ROW(),2)=1,"工作时长","")</f>
+        <v>工作时长</v>
+      </c>
+      <c r="D3" t="str">
+        <f>IF(MOD(ROW(),2)=1,"本月工资","")</f>
+        <v>本月工资</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B4" t="str">
+        <f t="shared" ref="B4:B15" si="0">IF(MOD(ROW(),2)=1,"银行卡号","")</f>
+        <v/>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" ref="C4:C15" si="1">IF(MOD(ROW(),2)=1,"工作时长","")</f>
+        <v/>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" ref="D4:D15" si="2">IF(MOD(ROW(),2)=1,"本月工资","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="str">
+        <f t="shared" ref="A4:A16" si="3">IF(MOD(ROW(),2)=1,"姓名","")</f>
+        <v>姓名</v>
+      </c>
+      <c r="B5" t="str">
+        <f t="shared" si="0"/>
+        <v>银行卡号</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="1"/>
+        <v>工作时长</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="2"/>
+        <v>本月工资</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="str">
+        <f t="shared" si="3"/>
+        <v>姓名</v>
+      </c>
+      <c r="B7" t="str">
+        <f t="shared" si="0"/>
+        <v>银行卡号</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="1"/>
+        <v>工作时长</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="2"/>
+        <v>本月工资</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="str">
+        <f t="shared" si="3"/>
+        <v>姓名</v>
+      </c>
+      <c r="B9" t="str">
+        <f t="shared" si="0"/>
+        <v>银行卡号</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="1"/>
+        <v>工作时长</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="2"/>
+        <v>本月工资</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="str">
+        <f t="shared" si="3"/>
+        <v>姓名</v>
+      </c>
+      <c r="B11" t="str">
+        <f t="shared" si="0"/>
+        <v>银行卡号</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="1"/>
+        <v>工作时长</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="2"/>
+        <v>本月工资</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="str">
+        <f t="shared" si="3"/>
+        <v>姓名</v>
+      </c>
+      <c r="B13" t="str">
+        <f t="shared" si="0"/>
+        <v>银行卡号</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="1"/>
+        <v>工作时长</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="2"/>
+        <v>本月工资</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B14" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="str">
+        <f t="shared" si="3"/>
+        <v>姓名</v>
+      </c>
+      <c r="B15" t="str">
+        <f t="shared" si="0"/>
+        <v>银行卡号</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="1"/>
+        <v>工作时长</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="2"/>
+        <v>本月工资</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="18" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
+        <v>144</v>
+      </c>
+      <c r="D19" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>15</v>
+      </c>
+      <c r="C20">
+        <f>SMALL($A$20:$A$28,ROW()-19)</f>
+        <v>12</v>
+      </c>
+      <c r="D20">
+        <f>LARGE($A$20:$A$28,ROW()-19)</f>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>12</v>
+      </c>
+      <c r="C21">
+        <f t="shared" ref="C21:C28" si="4">SMALL($A$20:$A$28,ROW()-19)</f>
+        <v>13</v>
+      </c>
+      <c r="D21">
+        <f t="shared" ref="D21:D28" si="5">LARGE($A$20:$A$28,ROW()-19)</f>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>78</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="5"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>56</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="5"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>13</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="4"/>
+        <v>24</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="5"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>45</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="4"/>
+        <v>45</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="5"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="4"/>
+        <v>56</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>20</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="4"/>
+        <v>56</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>56</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="4"/>
+        <v>78</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="19" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>147</v>
+      </c>
+      <c r="B32" t="s">
+        <v>148</v>
+      </c>
+      <c r="C32" t="s">
+        <v>149</v>
+      </c>
+      <c r="D32" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <f>IF(B33&lt;&gt;"",ROW()-32,"")</f>
+        <v>1</v>
+      </c>
+      <c r="B33" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" t="str">
+        <f t="shared" ref="A34:A43" si="6">IF(B34&lt;&gt;"",ROW()-32,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
+        <v>153</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="B32:D43">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$B32&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A32:A43">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$B32&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{167B62ED-ABDF-4B1B-8749-786D1F5377B1}">
+  <dimension ref="A1:O36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="B2" s="21">
+        <v>1600</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="G2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="B3" s="21">
+        <v>500</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E3" s="1">
+        <f t="array" ref="E3">SUM(($A$2:$A$7=D3)*$B$2:$B$7)</f>
+        <v>2960</v>
+      </c>
+      <c r="G3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="B4" s="21">
+        <v>1360</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E4" s="1">
+        <f t="array" ref="E4">SUM(($A$2:$A$7=D4)*$B$2:$B$7)</f>
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="B5" s="21">
+        <v>780</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E5" s="1">
+        <f t="array" ref="E5">SUM(($A$2:$A$7=D5)*$B$2:$B$7)</f>
+        <v>950</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="B6" s="21">
+        <v>450</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="B7" s="21">
+        <v>780</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="C11" s="21">
+        <v>500</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="C12" s="21">
+        <v>2000</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G12" s="1">
+        <f t="array" ref="G12">SUM(($A$11:$A$18=E12)*($B$11:$B$18=F12)*($C$11:$C$18))</f>
+        <v>1300</v>
+      </c>
+      <c r="I12" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="C13" s="21">
+        <v>1000</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G13" s="1">
+        <f t="array" ref="G13">SUM(($A$11:$A$18=E13)*($B$11:$B$18=F13)*($C$11:$C$18))</f>
+        <v>2800</v>
+      </c>
+      <c r="I13" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="C14" s="21">
+        <v>780</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="C15" s="21">
+        <v>450</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="C16" s="21">
+        <v>800</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A17" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="C17" s="21">
+        <v>800</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A18" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="C18" s="21">
+        <v>500</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A21" s="22" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A22" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="C22" s="23"/>
+      <c r="D22" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+      <c r="D23">
+        <f t="array" ref="D23:D28">A23:A28+B23:B28</f>
+        <v>5</v>
+      </c>
+      <c r="E23">
+        <f t="array" ref="E23:E28">A23:A28*B23:B28</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>2</v>
+      </c>
+      <c r="B24">
+        <v>6</v>
+      </c>
+      <c r="D24">
+        <v>8</v>
+      </c>
+      <c r="E24">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>2</v>
+      </c>
+      <c r="B25">
+        <v>8</v>
+      </c>
+      <c r="D25">
+        <v>10</v>
+      </c>
+      <c r="E25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>7</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="D26">
+        <v>9</v>
+      </c>
+      <c r="E26">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>5</v>
+      </c>
+      <c r="B27">
+        <v>4</v>
+      </c>
+      <c r="D27">
+        <v>9</v>
+      </c>
+      <c r="E27">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>4</v>
+      </c>
+      <c r="B28">
+        <v>4</v>
+      </c>
+      <c r="D28">
+        <v>8</v>
+      </c>
+      <c r="E28">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>172</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+      <c r="E31">
+        <v>7</v>
+      </c>
+      <c r="F31">
+        <v>5</v>
+      </c>
+      <c r="G31">
+        <v>4</v>
+      </c>
+      <c r="I31" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>173</v>
+      </c>
+      <c r="B32">
+        <v>4</v>
+      </c>
+      <c r="C32">
+        <v>6</v>
+      </c>
+      <c r="D32">
+        <v>8</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>4</v>
+      </c>
+      <c r="G32">
+        <v>4</v>
+      </c>
+      <c r="I32">
+        <f t="array" ref="I32">B31:G31+B32:G32</f>
+        <v>5</v>
+      </c>
+      <c r="J32">
+        <f t="array" ref="J32">C31:H31+C32:H32</f>
+        <v>8</v>
+      </c>
+      <c r="K32">
+        <f t="array" ref="K32">D31:I31+D32:I32</f>
+        <v>10</v>
+      </c>
+      <c r="L32">
+        <f t="array" ref="L32">E31:J31+E32:J32</f>
+        <v>9</v>
+      </c>
+      <c r="M32">
+        <f t="array" ref="M32">F31:K31+F32:K32</f>
+        <v>9</v>
+      </c>
+      <c r="N32">
+        <f t="array" ref="N32">G31:L31+G32:L32</f>
+        <v>8</v>
+      </c>
+      <c r="O32">
+        <f t="array" ref="O32">H31:M31+H32:M32</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="20"/>
+      <c r="B36" s="20"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8939D763-71EE-411A-8D89-B547AC415997}">
+  <dimension ref="A3:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="22.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="24" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="str">
+        <f>CHOOSE(2,E5,F5,G5,H5)</f>
+        <v>数学</v>
+      </c>
+      <c r="B5" t="s">
+        <v>180</v>
+      </c>
+      <c r="E5" t="s">
+        <v>134</v>
+      </c>
+      <c r="F5" t="s">
+        <v>135</v>
+      </c>
+      <c r="G5" t="s">
+        <v>137</v>
+      </c>
+      <c r="H5" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="e">
+        <f>CHOOSE(2,E5:H5)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="24" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>181</v>
+      </c>
+      <c r="B10" t="s">
+        <v>182</v>
+      </c>
+      <c r="C10" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>4</v>
+      </c>
+      <c r="B12">
+        <v>6</v>
+      </c>
+      <c r="C12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <f t="array" ref="A14">CHOOSE({1,3,2},A11:A12,B11:B12,C11:C12)</f>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EF92CFA-F41F-42D6-A117-1BF5B3DD9723}">
+  <dimension ref="A1:G27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="35.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" t="str">
+        <f>LOOKUP(1,1/($B$2:$B$16=E6),$A$2:$A$16)</f>
+        <v>罗萌</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" ref="F7:F8" si="0">LOOKUP(1,1/($B$2:$B$16=E7),$A$2:$A$16)</f>
+        <v>卫慧嘉</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="0"/>
+        <v>秦涵越</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="25" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="G13" t="str">
+        <f>LOOKUP(1,1/(($B$2:$B$17=E13)*($C$2:$C$17=F13)),$A$2:$A$17)</f>
+        <v>郭青青</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" t="str">
+        <f>LOOKUP(1,1/(($B$2:$B$17=E14)*($C$2:$C$17=F14)),$A$2:$A$17)</f>
+        <v>伍益冉</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G15" t="str">
+        <f>LOOKUP(1,1/(($B$2:$B$17=E15)*($C$2:$C$17=F15)),$A$2:$A$17)</f>
+        <v>韦雅涵</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="C21" t="s">
+        <v>197</v>
+      </c>
+      <c r="E21" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22">
+        <v>70</v>
+      </c>
+      <c r="C22" t="str">
+        <f>LOOKUP(B22,{0,60,70,80,90},{"E","D","C","B","A"})</f>
+        <v>C</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23">
+        <v>65</v>
+      </c>
+      <c r="C23" t="str">
+        <f>LOOKUP(B23,{0,60,70,80,90},{"E","D","C","B","A"})</f>
+        <v>D</v>
+      </c>
+      <c r="E23" t="s">
+        <v>190</v>
+      </c>
+      <c r="F23" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24">
+        <v>50</v>
+      </c>
+      <c r="C24" t="str">
+        <f>LOOKUP(B24,{0,60,70,80,90},{"E","D","C","B","A"})</f>
+        <v>E</v>
+      </c>
+      <c r="E24" t="s">
+        <v>193</v>
+      </c>
+      <c r="F24" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25">
+        <v>80</v>
+      </c>
+      <c r="C25" t="str">
+        <f>LOOKUP(B25,{0,60,70,80,90},{"E","D","C","B","A"})</f>
+        <v>B</v>
+      </c>
+      <c r="E25" t="s">
+        <v>194</v>
+      </c>
+      <c r="F25" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26">
+        <v>90</v>
+      </c>
+      <c r="C26" t="str">
+        <f>LOOKUP(B26,{0,60,70,80,90},{"E","D","C","B","A"})</f>
+        <v>A</v>
+      </c>
+      <c r="E26" t="s">
+        <v>195</v>
+      </c>
+      <c r="F26" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E27" t="s">
+        <v>196</v>
+      </c>
+      <c r="F27" t="s">
+        <v>94</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/office/gate/excel/查找引用技术.xlsx
+++ b/office/gate/excel/查找引用技术.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\gitRepository\daily\office\gate\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C382B75C-8FD5-482F-A058-F753E27B6C92}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD8831B8-0B2A-4075-B157-7297634466B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="7" xr2:uid="{AA77C763-8165-4E44-8D2A-A04B7AAC814C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="9" xr2:uid="{AA77C763-8165-4E44-8D2A-A04B7AAC814C}"/>
   </bookViews>
   <sheets>
     <sheet name="VLOOKUP" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,8 @@
     <sheet name="初识数组" sheetId="6" r:id="rId6"/>
     <sheet name="CHOOSE" sheetId="7" r:id="rId7"/>
     <sheet name="LOOKUP" sheetId="8" r:id="rId8"/>
+    <sheet name="其他函数" sheetId="9" r:id="rId9"/>
+    <sheet name="OFFSET" sheetId="11" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="第二季">INDIRECT!$C$12:$C$17</definedName>
@@ -45,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="260">
   <si>
     <t>公司名</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -759,10 +761,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>0&lt;= grade&lt;60</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>区间</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -788,6 +786,267 @@
   </si>
   <si>
     <t>LOOKUP(B22,{0,60,70,80,90},{"E","D","C","B","A"})</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0&lt;= GRADE&lt;60</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮箱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>域名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hy@163.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>wq@qq.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nhao@sina.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mobile@193.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收支明细</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>流水</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016/1/18 转账 -800</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016/1/18 充值 3000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016/1/20 购买理财产品 -2000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016/1/22 工资收入 3000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016/1/23 手机充值 -100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016/1/22 提现 -500</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二个空格后 数字截取</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"@符两侧</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FIND()</t>
+  </si>
+  <si>
+    <t>产品</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>奥克马空调</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>长虹电视机</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>美的空调</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>康佳电视机</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>红旗电视机</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>索尼电视机（进口）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小天鹅洗衣机</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>电视机的数量：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>REPLACE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话中间四位用星号代替</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>替换字符</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>REPT做简单的趋势分析</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>取末段序号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>aaa-q2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>qk-yy-wa1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>步骤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1计算-的个数，</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2替换最后一个-为</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3找到@所在位置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4截取末段字符</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>wmz-sb-a61</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>车间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1月</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2月</t>
+  </si>
+  <si>
+    <t>3月</t>
+  </si>
+  <si>
+    <t>4月</t>
+  </si>
+  <si>
+    <t>一车间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>二车间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>三车间</t>
+  </si>
+  <si>
+    <t>三车间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>二车间查找引用示例</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查找月份：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查找车间：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前月累计工时</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当月工时：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前车间累计工时</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>统计不及格科目大于等于两门的人数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>化学</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>生物</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不及格科目</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SUM(N(COUNTIF(OFFSET($A$18,ROW(A19:A23)-18,1,1,6),"&lt;60")&gt;=2))</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -798,7 +1057,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -857,6 +1116,32 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -943,12 +1228,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1015,9 +1303,20 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1599,6 +1898,325 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE902AF6-55CE-414F-9B84-CDFD3BF288A8}">
+  <dimension ref="A2:J23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C2" t="s">
+        <v>241</v>
+      </c>
+      <c r="D2" t="s">
+        <v>242</v>
+      </c>
+      <c r="E2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>244</v>
+      </c>
+      <c r="B3">
+        <v>700</v>
+      </c>
+      <c r="C3">
+        <v>800</v>
+      </c>
+      <c r="D3">
+        <v>900</v>
+      </c>
+      <c r="E3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>245</v>
+      </c>
+      <c r="B4">
+        <v>1000</v>
+      </c>
+      <c r="C4">
+        <v>600</v>
+      </c>
+      <c r="D4">
+        <v>700</v>
+      </c>
+      <c r="E4">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>247</v>
+      </c>
+      <c r="B5">
+        <v>900</v>
+      </c>
+      <c r="C5">
+        <v>500</v>
+      </c>
+      <c r="D5">
+        <v>1000</v>
+      </c>
+      <c r="E5">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>249</v>
+      </c>
+      <c r="B8" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>250</v>
+      </c>
+      <c r="B9" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>252</v>
+      </c>
+      <c r="B10">
+        <f>INDEX(B3:E5,MATCH(B9,A3:A5,0),MATCH(B8,B2:E2,0))</f>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>251</v>
+      </c>
+      <c r="B12">
+        <f ca="1">SUM(OFFSET(A2,1,MATCH(B8,B2:E2,0),3,1))</f>
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>253</v>
+      </c>
+      <c r="B13">
+        <f ca="1">SUM(OFFSET(A2,MATCH(B9,A3:A5,0),1,1,4))</f>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>254</v>
+      </c>
+      <c r="D17" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="J18" s="10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19">
+        <v>70</v>
+      </c>
+      <c r="C19">
+        <v>90</v>
+      </c>
+      <c r="D19">
+        <v>70</v>
+      </c>
+      <c r="E19">
+        <v>60</v>
+      </c>
+      <c r="F19">
+        <v>40</v>
+      </c>
+      <c r="G19">
+        <v>50</v>
+      </c>
+      <c r="H19">
+        <f ca="1">COUNTIF(OFFSET($A$18,ROW()-18,1,1,6),"&lt;60")</f>
+        <v>2</v>
+      </c>
+      <c r="J19">
+        <f t="array" aca="1" ref="J19" ca="1">SUM(N(COUNTIF(OFFSET($A$18,ROW(A19:A23)-18,1,1,6),"&lt;60")&gt;=2))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20">
+        <v>65</v>
+      </c>
+      <c r="C20">
+        <v>80</v>
+      </c>
+      <c r="D20">
+        <v>90</v>
+      </c>
+      <c r="E20">
+        <v>80</v>
+      </c>
+      <c r="F20">
+        <v>70</v>
+      </c>
+      <c r="G20">
+        <v>60</v>
+      </c>
+      <c r="H20">
+        <f ca="1">COUNTIF(OFFSET($A$18,ROW()-18,1,1,6),"&lt;60")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21">
+        <v>50</v>
+      </c>
+      <c r="C21">
+        <v>75</v>
+      </c>
+      <c r="D21">
+        <v>78</v>
+      </c>
+      <c r="E21">
+        <v>59</v>
+      </c>
+      <c r="F21">
+        <v>50</v>
+      </c>
+      <c r="G21">
+        <v>80</v>
+      </c>
+      <c r="H21">
+        <f t="shared" ref="H20:H23" ca="1" si="0">COUNTIF(OFFSET($A$18,ROW()-18,1,1,6),"&lt;60")</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22">
+        <v>80</v>
+      </c>
+      <c r="C22">
+        <v>85</v>
+      </c>
+      <c r="D22">
+        <v>61</v>
+      </c>
+      <c r="E22">
+        <v>49</v>
+      </c>
+      <c r="F22">
+        <v>80</v>
+      </c>
+      <c r="G22">
+        <v>70</v>
+      </c>
+      <c r="H22">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23">
+        <v>90</v>
+      </c>
+      <c r="C23">
+        <v>55</v>
+      </c>
+      <c r="D23">
+        <v>80</v>
+      </c>
+      <c r="E23">
+        <v>30</v>
+      </c>
+      <c r="F23">
+        <v>80</v>
+      </c>
+      <c r="G23">
+        <v>70</v>
+      </c>
+      <c r="H23">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8" xr:uid="{8174F7D3-256C-4443-94DA-EE55B47E7950}">
+      <formula1>$B$2:$E$2</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9" xr:uid="{ED8BFCD8-38E8-4794-AED7-4068BB5A995F}">
+      <formula1>$A$3:$A$5</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{725D7CCE-7813-45A0-AD34-025D80646DC4}">
   <dimension ref="B2:K40"/>
@@ -2229,6 +2847,22 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap" xr2:uid="{13F276E0-2714-4DDF-911C-7DFD40F305A3}">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>INDIRECT!B12:E12</xm:f>
+              <xm:sqref>F12</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
         <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{ADF99DF4-6EE9-4C38-8959-0FE8B9C65632}">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
@@ -2261,22 +2895,6 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap" xr2:uid="{13F276E0-2714-4DDF-911C-7DFD40F305A3}">
-          <x14:colorSeries rgb="FF376092"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFD00000"/>
-          <x14:colorHigh rgb="FFD00000"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>INDIRECT!B12:E12</xm:f>
-              <xm:sqref>F12</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
       </x14:sparklineGroups>
     </ext>
   </extLst>
@@ -2929,7 +3547,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="str">
-        <f t="shared" ref="A4:A16" si="3">IF(MOD(ROW(),2)=1,"姓名","")</f>
+        <f t="shared" ref="A5:A16" si="3">IF(MOD(ROW(),2)=1,"姓名","")</f>
         <v>姓名</v>
       </c>
       <c r="B5" t="str">
@@ -3948,8 +4566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EF92CFA-F41F-42D6-A117-1BF5B3DD9723}">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4226,7 +4844,7 @@
         <v>134</v>
       </c>
       <c r="C21" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E21" t="s">
         <v>189</v>
@@ -4244,10 +4862,10 @@
         <v>C</v>
       </c>
       <c r="E22" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="F22" s="10" t="s">
         <v>191</v>
-      </c>
-      <c r="F22" s="10" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -4262,7 +4880,7 @@
         <v>D</v>
       </c>
       <c r="E23" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="F23" t="s">
         <v>98</v>
@@ -4280,7 +4898,7 @@
         <v>E</v>
       </c>
       <c r="E24" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F24" t="s">
         <v>97</v>
@@ -4298,7 +4916,7 @@
         <v>B</v>
       </c>
       <c r="E25" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F25" t="s">
         <v>96</v>
@@ -4316,7 +4934,7 @@
         <v>A</v>
       </c>
       <c r="E26" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F26" t="s">
         <v>95</v>
@@ -4324,7 +4942,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E27" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F27" t="s">
         <v>94</v>
@@ -4334,4 +4952,487 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9AA5F8F-6775-4857-9AAE-52E3AF9E32EC}">
+  <dimension ref="A2:C65"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="26.625" customWidth="1"/>
+    <col min="2" max="2" width="17.125" customWidth="1"/>
+    <col min="3" max="3" width="21.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="16" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="B6" t="str">
+        <f>LEFT(A6,FIND("@",A6,1)-1)</f>
+        <v>hy</v>
+      </c>
+      <c r="C6" t="str">
+        <f>MID(A6,FIND("@",A6,1)+1,50)</f>
+        <v>163.com</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="B7" t="str">
+        <f t="shared" ref="B7:B9" si="0">LEFT(A7,FIND("@",A7,1)-1)</f>
+        <v>wq</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" ref="C7:C9" si="1">MID(A7,FIND("@",A7,1)+1,50)</f>
+        <v>qq.com</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="B8" t="str">
+        <f t="shared" si="0"/>
+        <v>nhao</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="1"/>
+        <v>sina.com</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="B9" t="str">
+        <f t="shared" si="0"/>
+        <v>mobile</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="1"/>
+        <v>193.com</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="27" t="s">
+        <v>206</v>
+      </c>
+      <c r="B13" t="str">
+        <f>MID(A13,FIND(" ",A13,FIND(" ",A13)+1)+1,10)</f>
+        <v>-800</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="27" t="s">
+        <v>207</v>
+      </c>
+      <c r="B14" t="str">
+        <f t="shared" ref="B14:B18" si="2">MID(A14,FIND(" ",A14,FIND(" ",A14)+1)+1,10)</f>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="27" t="s">
+        <v>208</v>
+      </c>
+      <c r="B15" t="str">
+        <f t="shared" si="2"/>
+        <v>-2000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="27" t="s">
+        <v>209</v>
+      </c>
+      <c r="B16" t="str">
+        <f t="shared" si="2"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="27" t="s">
+        <v>211</v>
+      </c>
+      <c r="B17" t="str">
+        <f t="shared" si="2"/>
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="27" t="s">
+        <v>210</v>
+      </c>
+      <c r="B18" t="str">
+        <f t="shared" si="2"/>
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="27" t="s">
+        <v>217</v>
+      </c>
+      <c r="B21">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="27" t="s">
+        <v>218</v>
+      </c>
+      <c r="B22">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="27" t="s">
+        <v>219</v>
+      </c>
+      <c r="B23">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="27" t="s">
+        <v>220</v>
+      </c>
+      <c r="B24">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="27" t="s">
+        <v>221</v>
+      </c>
+      <c r="B25">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="27" t="s">
+        <v>223</v>
+      </c>
+      <c r="B26">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="27" t="s">
+        <v>222</v>
+      </c>
+      <c r="B27">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="27" t="s">
+        <v>224</v>
+      </c>
+      <c r="B30">
+        <f>SUM({0;150;0;452;174;0;100})</f>
+        <v>876</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="28" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="C35" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B36">
+        <v>13990185473</v>
+      </c>
+      <c r="C36" t="str">
+        <f>REPLACE(B36,4,4,"****")</f>
+        <v>139****5473</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B37">
+        <v>15287924756</v>
+      </c>
+      <c r="C37" t="str">
+        <f t="shared" ref="C37:C40" si="3">REPLACE(B37,4,4,"****")</f>
+        <v>152****4756</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38">
+        <v>15183004123</v>
+      </c>
+      <c r="C38" t="str">
+        <f t="shared" si="3"/>
+        <v>151****4123</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39">
+        <v>18088315746</v>
+      </c>
+      <c r="C39" t="str">
+        <f t="shared" si="3"/>
+        <v>180****5746</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40">
+        <v>13228456197</v>
+      </c>
+      <c r="C40" t="str">
+        <f t="shared" si="3"/>
+        <v>132****6197</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="2"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B43" t="str">
+        <f>REPLACE(A43,1,,"HAH")</f>
+        <v>HAH云国栋</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="2"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="10" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="29">
+        <v>192</v>
+      </c>
+      <c r="B49" t="str">
+        <f>REPT("|",A49/SUM($A$49:$A$54)*100)</f>
+        <v>||||||||||||||||||||||||||||</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="29">
+        <v>50</v>
+      </c>
+      <c r="B50" t="str">
+        <f t="shared" ref="B50:B54" si="4">REPT("|",A50/SUM($A$49:$A$54)*100)</f>
+        <v>|||||||</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>74</v>
+      </c>
+      <c r="B51" t="str">
+        <f t="shared" si="4"/>
+        <v>||||||||||</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>60</v>
+      </c>
+      <c r="B52" t="str">
+        <f t="shared" si="4"/>
+        <v>||||||||</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>50</v>
+      </c>
+      <c r="B53" t="str">
+        <f t="shared" si="4"/>
+        <v>|||||||</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>250</v>
+      </c>
+      <c r="B54" t="str">
+        <f t="shared" si="4"/>
+        <v>||||||||||||||||||||||||||||||||||||</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>238</v>
+      </c>
+      <c r="B57" t="str">
+        <f>MID(A57,FIND("@",SUBSTITUTE(A57,"-","@",LEN(A57)-LEN(SUBSTITUTE(A57,"-",""))),1)+1,10)</f>
+        <v>a61</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>231</v>
+      </c>
+      <c r="B58" t="str">
+        <f t="shared" ref="B58:B60" si="5">MID(A58,FIND("@",SUBSTITUTE(A58,"-","@",LEN(A58)-LEN(SUBSTITUTE(A58,"-",""))),1)+1,10)</f>
+        <v>q2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>232</v>
+      </c>
+      <c r="B59" t="str">
+        <f>MID(A59,FIND("@",SUBSTITUTE(A59,"-","@",LEN(A59)-LEN(SUBSTITUTE(A59,"-",""))),1)+1,10)</f>
+        <v>wa1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>233</v>
+      </c>
+      <c r="B61" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>234</v>
+      </c>
+      <c r="B62">
+        <f>LEN(B61)-LEN(SUBSTITUTE(B61,"-",""))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="B63" t="str">
+        <f>SUBSTITUTE(B61,"-","@",B62)</f>
+        <v>wmz-sb@a61</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" s="26" t="s">
+        <v>236</v>
+      </c>
+      <c r="B64">
+        <f>FIND("@",B63,1)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>237</v>
+      </c>
+      <c r="B65" t="str">
+        <f>MID(B61,B64+1,10)</f>
+        <v>a61</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A6" r:id="rId1" xr:uid="{89F8137B-596C-424F-B1F3-2E63D8B35B1F}"/>
+    <hyperlink ref="A7" r:id="rId2" xr:uid="{30AED2BF-E691-4CB5-A4D2-056497CCF28D}"/>
+    <hyperlink ref="A8" r:id="rId3" xr:uid="{397E87F0-CFD3-4FC5-850A-A1C87375CEEF}"/>
+    <hyperlink ref="A9" r:id="rId4" xr:uid="{C39DA32F-C9CD-4559-90FA-3E273670EE86}"/>
+    <hyperlink ref="A63" r:id="rId5" xr:uid="{50D132EA-3D7F-4127-9875-353DCE9453BB}"/>
+    <hyperlink ref="A64" r:id="rId6" xr:uid="{76B3DAD5-FF1B-418F-B48B-56120EBA4C71}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/office/gate/excel/查找引用技术.xlsx
+++ b/office/gate/excel/查找引用技术.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\gitRepository\daily\office\gate\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD8831B8-0B2A-4075-B157-7297634466B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFA7D8C3-6AA3-4910-AC3E-6AE452636F75}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="9" xr2:uid="{AA77C763-8165-4E44-8D2A-A04B7AAC814C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="4" activeTab="10" xr2:uid="{AA77C763-8165-4E44-8D2A-A04B7AAC814C}"/>
   </bookViews>
   <sheets>
     <sheet name="VLOOKUP" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="LOOKUP" sheetId="8" r:id="rId8"/>
     <sheet name="其他函数" sheetId="9" r:id="rId9"/>
     <sheet name="OFFSET" sheetId="11" r:id="rId10"/>
+    <sheet name="RANK" sheetId="12" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="第二季">INDIRECT!$C$12:$C$17</definedName>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="270">
   <si>
     <t>公司名</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1047,6 +1048,46 @@
   </si>
   <si>
     <t>SUM(N(COUNTIF(OFFSET($A$18,ROW(A19:A23)-18,1,1,6),"&lt;60")&gt;=2))</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>countif排名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rank排名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>排名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>countif与rank排名都是美式排名。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中式排名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>条件排名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>班级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一班</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>二班</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数组方法</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1668,7 +1709,7 @@
   <dimension ref="B1:D29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D16"/>
+      <selection activeCell="B11" sqref="B11:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1902,8 +1943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE902AF6-55CE-414F-9B84-CDFD3BF288A8}">
   <dimension ref="A2:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2145,7 +2186,7 @@
         <v>80</v>
       </c>
       <c r="H21">
-        <f t="shared" ref="H20:H23" ca="1" si="0">COUNTIF(OFFSET($A$18,ROW()-18,1,1,6),"&lt;60")</f>
+        <f t="shared" ref="H21:H23" ca="1" si="0">COUNTIF(OFFSET($A$18,ROW()-18,1,1,6),"&lt;60")</f>
         <v>3</v>
       </c>
     </row>
@@ -2214,6 +2255,381 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A04B2726-3909-4D63-8096-89E4D06F280F}">
+  <dimension ref="A2:F24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="29.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="C3" t="s">
+        <v>260</v>
+      </c>
+      <c r="D3" t="s">
+        <v>261</v>
+      </c>
+      <c r="E3" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>50</v>
+      </c>
+      <c r="C4">
+        <f>COUNTIF($B$4:$B$8,"&gt;"&amp;B4)+1</f>
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <f>RANK(B4,$B$4:$B$8)</f>
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <f>SUMPRODUCT(($B$4:$B$8&gt;B4)*(1/COUNTIF($B$4:$B$8,$B$4:$B$8)))+1</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>60</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ref="C5:C8" si="0">COUNTIF($B$4:$B$8,"&gt;"&amp;B5)+1</f>
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ref="D5:D8" si="1">RANK(B5,$B$4:$B$8)</f>
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <f>SUMPRODUCT(($B$4:$B$8&gt;B5)*(1/COUNTIF($B$4:$B$8,$B$4:$B$8)))+1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>80</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <f t="shared" ref="E5:E8" si="2">SUMPRODUCT(($B$4:$B$8&gt;B6)*(1/COUNTIF($B$4:$B$8,$B$4:$B$8)))+1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>70</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>70</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>50</v>
+      </c>
+      <c r="E14">
+        <f ca="1">RANK(C14,OFFSET($C$13,MATCH(A14,$A$14:$A$24,0),0,COUNTIF($A$14:$A$24,A14),1))</f>
+        <v>5</v>
+      </c>
+      <c r="F14">
+        <f>SUMPRODUCT(($A$14:$A$24=A14)*($C$14:$C$24&gt;C14))+1</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15">
+        <v>60</v>
+      </c>
+      <c r="E15">
+        <f t="shared" ref="E15:E24" ca="1" si="3">RANK(C15,OFFSET($C$13,MATCH(A15,$A$14:$A$24,0),0,COUNTIF($A$14:$A$24,A15),1))</f>
+        <v>4</v>
+      </c>
+      <c r="F15">
+        <f t="shared" ref="F15:F24" si="4">SUMPRODUCT(($A$14:$A$24=A15)*($C$14:$C$24&gt;C15))+1</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16">
+        <v>80</v>
+      </c>
+      <c r="E16">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17">
+        <v>70</v>
+      </c>
+      <c r="E17">
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18">
+        <v>70</v>
+      </c>
+      <c r="E18">
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19">
+        <v>70</v>
+      </c>
+      <c r="E19">
+        <f t="shared" ca="1" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20">
+        <v>90</v>
+      </c>
+      <c r="E20">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21">
+        <v>78</v>
+      </c>
+      <c r="E21">
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22">
+        <v>61</v>
+      </c>
+      <c r="E22">
+        <f t="shared" ca="1" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23">
+        <v>80</v>
+      </c>
+      <c r="E23">
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24">
+        <v>75</v>
+      </c>
+      <c r="E24">
+        <f t="shared" ca="1" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -2221,7 +2637,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{725D7CCE-7813-45A0-AD34-025D80646DC4}">
   <dimension ref="B2:K40"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
@@ -2847,22 +3263,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap" xr2:uid="{13F276E0-2714-4DDF-911C-7DFD40F305A3}">
-          <x14:colorSeries rgb="FF376092"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFD00000"/>
-          <x14:colorHigh rgb="FFD00000"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>INDIRECT!B12:E12</xm:f>
-              <xm:sqref>F12</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
         <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{ADF99DF4-6EE9-4C38-8959-0FE8B9C65632}">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
@@ -2895,6 +3295,22 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
+        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap" xr2:uid="{13F276E0-2714-4DDF-911C-7DFD40F305A3}">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>INDIRECT!B12:E12</xm:f>
+              <xm:sqref>F12</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
       </x14:sparklineGroups>
     </ext>
   </extLst>
@@ -3502,7 +3918,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C80B3A01-B532-4675-B0EA-A03B52622581}">
   <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
@@ -4958,7 +5374,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9AA5F8F-6775-4857-9AAE-52E3AF9E32EC}">
   <dimension ref="A2:C65"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
@@ -5366,7 +5782,7 @@
         <v>231</v>
       </c>
       <c r="B58" t="str">
-        <f t="shared" ref="B58:B60" si="5">MID(A58,FIND("@",SUBSTITUTE(A58,"-","@",LEN(A58)-LEN(SUBSTITUTE(A58,"-",""))),1)+1,10)</f>
+        <f t="shared" ref="B58" si="5">MID(A58,FIND("@",SUBSTITUTE(A58,"-","@",LEN(A58)-LEN(SUBSTITUTE(A58,"-",""))),1)+1,10)</f>
         <v>q2</v>
       </c>
     </row>
